--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2403515.863095421</v>
+        <v>-2406098.895165149</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15895947.52705645</v>
+        <v>15895947.52705644</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>65.3382573939128</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>129.94155672686</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247644</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>65.23590650983923</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>42.55046801529604</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5748211465602</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>71.68269007697771</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>34.70680748481099</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,16 +1102,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>168.8885499332614</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.4384179530375</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>293.1125090217669</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>135.5580861295573</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7671037116294</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>71.2247518360501</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222778</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>87.21471514852971</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456775</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>13.94435783112366</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327684</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>20.13408744447668</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8784673763403</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712591</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149752</v>
+        <v>171.0385136149755</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316657</v>
+        <v>158.453354531666</v>
       </c>
       <c r="D28" t="n">
-        <v>63.85811343393583</v>
+        <v>44.76793778823009</v>
       </c>
       <c r="E28" t="n">
-        <v>137.640496079607</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.730671725307</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792617</v>
+        <v>131.5012462792621</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160341</v>
+        <v>72.47236975160372</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315956</v>
+        <v>57.58178014315985</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346825</v>
+        <v>172.2328194346828</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603261</v>
+        <v>208.6119837603265</v>
       </c>
       <c r="U28" t="n">
-        <v>277.391007822282</v>
+        <v>277.3910078222823</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568659</v>
+        <v>243.3441767568662</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696289</v>
+        <v>277.7295317696292</v>
       </c>
       <c r="X28" t="n">
-        <v>216.916188822075</v>
+        <v>216.9161888220754</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851327</v>
+        <v>209.791186785133</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545293</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1636.624422581789</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871871</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218357</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218357</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3084.061055432366</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3084.061055432366</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2752.998168088795</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2400.229512818681</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2026.763754557601</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1636.624422581789</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387291</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927773</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064474</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.7326486742817</v>
+        <v>739.2385409879454</v>
       </c>
       <c r="C4" t="n">
-        <v>229.7326486742817</v>
+        <v>570.3023580600385</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>570.3023580600385</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>570.3023580600385</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>423.4124105621281</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>255.7095739368471</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>109.4923871547048</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596437</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181844</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757123</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="X4" t="n">
-        <v>411.3811135045214</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="Y4" t="n">
-        <v>411.3811135045214</v>
+        <v>920.8870058181851</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204826</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204826</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959802</v>
@@ -4720,10 +4720,10 @@
         <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1666.869595963939</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.102980533465</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.000113659108</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1156.000113659108</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W7" t="n">
-        <v>866.5829436221477</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X7" t="n">
-        <v>638.5933927241304</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367745</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760994</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
@@ -4814,10 +4814,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
@@ -4832,22 +4832,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.14006334809</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1512.727054956335</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
         <v>163.837793613838</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5066,16 +5066,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424042</v>
+        <v>854.7852236114971</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>704.6685841991614</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>556.7554906167683</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1205.369871369644</v>
       </c>
     </row>
     <row r="14">
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,16 +5358,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>741.8431516380889</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261836</v>
+        <v>572.906968710182</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138479</v>
+        <v>572.906968710182</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>572.906968710182</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.31327972786</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.52070058433</v>
+        <v>923.4916164683286</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,13 +5598,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,7 +5701,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854706</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>198.744407872558</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011268</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046121</v>
+        <v>663.4384611046072</v>
       </c>
       <c r="C28" t="n">
-        <v>503.384567638283</v>
+        <v>503.3845676382778</v>
       </c>
       <c r="D28" t="n">
-        <v>438.8814227555196</v>
+        <v>458.1644284582475</v>
       </c>
       <c r="E28" t="n">
-        <v>299.8506186347044</v>
+        <v>458.1644284582475</v>
       </c>
       <c r="F28" t="n">
-        <v>299.8506186347044</v>
+        <v>458.1644284582475</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347044</v>
+        <v>299.850618634705</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384804</v>
+        <v>167.0210769384807</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795882</v>
+        <v>182.7582133795879</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064193</v>
+        <v>453.1530078064188</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836519</v>
+        <v>852.2571338836511</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515979</v>
+        <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.08777207728</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687557</v>
+        <v>2087.322584687555</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162408</v>
+        <v>2388.703572162407</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.6073387906</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.44392450458</v>
+        <v>2458.443924504578</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621063</v>
+        <v>2284.47137962106</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105582</v>
+        <v>2073.752204105579</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911357</v>
+        <v>1793.559266911354</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167048</v>
+        <v>1547.757068167045</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591665</v>
+        <v>1267.222187591662</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155226</v>
+        <v>1048.114926155222</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732739</v>
+        <v>836.2046364732694</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,16 +6549,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6604,7 +6604,7 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,13 +6646,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>317.3955842695678</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>73.97641341276017</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.37956650837313</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.80195239454224</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744508</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>74.19629618688114</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892461</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434139</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>58.20633287440153</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345295035</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>211.7652975579135</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626876</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>198.4505659076181</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.41624546988359</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038546</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>75.9638930173144</v>
+        <v>95.05406866302046</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796074</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559691</v>
+        <v>136.6275814559694</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253067</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1385567.986703281</v>
+        <v>1385567.986703282</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1394121.432434651</v>
+        <v>1394121.43243465</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687493</v>
+        <v>32904.09773687494</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="F2" t="n">
         <v>40357.32998450031</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40357.3299845003</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="J2" t="n">
-        <v>40608.90191777585</v>
+        <v>40608.90191777584</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321418</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508471</v>
+        <v>224565.975650847</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006208</v>
+        <v>12392.94474006234</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569675</v>
+        <v>7034.773253569456</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006211</v>
+        <v>12392.94474006233</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26439,25 +26439,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>17110.24080442853</v>
+        <v>17110.2408044284</v>
       </c>
       <c r="K4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994856</v>
       </c>
       <c r="M4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
         <v>-160285.6389163855</v>
@@ -26528,40 +26528,40 @@
         <v>-160285.6389163855</v>
       </c>
       <c r="E6" t="n">
-        <v>-400394.4137236171</v>
+        <v>-400429.1516490527</v>
       </c>
       <c r="F6" t="n">
-        <v>-74981.95191626187</v>
+        <v>-75016.68984169755</v>
       </c>
       <c r="G6" t="n">
-        <v>-74981.95191626185</v>
+        <v>-75016.68984169755</v>
       </c>
       <c r="H6" t="n">
-        <v>-74981.95191626187</v>
+        <v>-75016.68984169756</v>
       </c>
       <c r="I6" t="n">
-        <v>-74981.95191626185</v>
+        <v>-75016.68984169756</v>
       </c>
       <c r="J6" t="n">
-        <v>-302929.1023022248</v>
+        <v>-302951.2616309965</v>
       </c>
       <c r="K6" t="n">
-        <v>-96712.58344071182</v>
+        <v>-96712.58344071207</v>
       </c>
       <c r="L6" t="n">
-        <v>-84319.63870064971</v>
+        <v>-84319.63870064975</v>
       </c>
       <c r="M6" t="n">
         <v>-169374.6666361616</v>
       </c>
       <c r="N6" t="n">
-        <v>-84319.63870064972</v>
+        <v>-84319.63870064971</v>
       </c>
       <c r="O6" t="n">
-        <v>-91354.41195421945</v>
+        <v>-91354.41195421918</v>
       </c>
       <c r="P6" t="n">
-        <v>-96712.58344071187</v>
+        <v>-96712.58344071207</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="K2" t="n">
-        <v>15.4911809250776</v>
+        <v>15.49118092507793</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962094</v>
+        <v>8.79346656696182</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507764</v>
+        <v>15.49118092507791</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="P2" t="n">
-        <v>15.4911809250776</v>
+        <v>15.49118092507793</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244473</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>314.5552485790759</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>132.5400136138169</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.88047539818049</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>93.12542963428666</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.27389405238</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841794</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-7.965435133550907e-13</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961802</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>639.47033547631</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991548</v>
+        <v>89.83994982991521</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765971</v>
+        <v>273.1260549765968</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860935</v>
+        <v>403.1354808860933</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680073</v>
+        <v>435.065893568007</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568696</v>
+        <v>430.4195995568692</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730076</v>
+        <v>382.0553662730073</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735871</v>
+        <v>304.4252398735868</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668605</v>
+        <v>129.1957238668602</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,19 +37148,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
